--- a/player_stats.xlsx
+++ b/player_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="289">
   <si>
     <t>Name</t>
   </si>
@@ -445,526 +445,442 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>40.6%</t>
-  </si>
-  <si>
-    <t>39.2%</t>
-  </si>
-  <si>
-    <t>50.2%</t>
-  </si>
-  <si>
-    <t>33.7%</t>
-  </si>
-  <si>
-    <t>40.0%</t>
-  </si>
-  <si>
-    <t>53.3%</t>
-  </si>
-  <si>
-    <t>49.5%</t>
-  </si>
-  <si>
-    <t>47.6%</t>
-  </si>
-  <si>
-    <t>25.0%</t>
-  </si>
-  <si>
-    <t>48.6%</t>
-  </si>
-  <si>
-    <t>51.5%</t>
-  </si>
-  <si>
-    <t>41.9%</t>
-  </si>
-  <si>
-    <t>50.8%</t>
-  </si>
-  <si>
-    <t>53.7%</t>
-  </si>
-  <si>
-    <t>32.6%</t>
-  </si>
-  <si>
-    <t>48.9%</t>
-  </si>
-  <si>
-    <t>62.8%</t>
-  </si>
-  <si>
-    <t>29.9%</t>
-  </si>
-  <si>
-    <t>45.2%</t>
-  </si>
-  <si>
-    <t>51.8%</t>
-  </si>
-  <si>
-    <t>48.7%</t>
-  </si>
-  <si>
-    <t>26.2%</t>
-  </si>
-  <si>
-    <t>52.2%</t>
-  </si>
-  <si>
-    <t>45.8%</t>
-  </si>
-  <si>
-    <t>47.4%</t>
-  </si>
-  <si>
-    <t>31.1%</t>
-  </si>
-  <si>
-    <t>49.6%</t>
-  </si>
-  <si>
-    <t>46.9%</t>
-  </si>
-  <si>
-    <t>42.1%</t>
-  </si>
-  <si>
-    <t>46.3%</t>
-  </si>
-  <si>
-    <t>28.1%</t>
-  </si>
-  <si>
-    <t>55.8%</t>
-  </si>
-  <si>
-    <t>35.2%</t>
-  </si>
-  <si>
-    <t>47.3%</t>
-  </si>
-  <si>
-    <t>44.1%</t>
-  </si>
-  <si>
-    <t>52.7%</t>
-  </si>
-  <si>
-    <t>56.8%</t>
-  </si>
-  <si>
-    <t>28.4%</t>
-  </si>
-  <si>
-    <t>49.2%</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>27.0%</t>
-  </si>
-  <si>
-    <t>28.6%</t>
-  </si>
-  <si>
-    <t>53.6%</t>
-  </si>
-  <si>
-    <t>41.8%</t>
-  </si>
-  <si>
-    <t>31.4%</t>
-  </si>
-  <si>
-    <t>26.4%</t>
-  </si>
-  <si>
-    <t>53.2%</t>
-  </si>
-  <si>
-    <t>54.5%</t>
-  </si>
-  <si>
-    <t>54.2%</t>
-  </si>
-  <si>
-    <t>41.3%</t>
-  </si>
-  <si>
-    <t>55.4%</t>
-  </si>
-  <si>
-    <t>49.1%</t>
-  </si>
-  <si>
-    <t>52.0%</t>
-  </si>
-  <si>
-    <t>51.3%</t>
-  </si>
-  <si>
-    <t>42.0%</t>
-  </si>
-  <si>
-    <t>48.3%</t>
-  </si>
-  <si>
-    <t>47.8%</t>
-  </si>
-  <si>
-    <t>54.3%</t>
-  </si>
-  <si>
-    <t>39.0%</t>
-  </si>
-  <si>
-    <t>49.3%</t>
-  </si>
-  <si>
-    <t>37.7%</t>
-  </si>
-  <si>
-    <t>36.0%</t>
-  </si>
-  <si>
-    <t>37.9%</t>
-  </si>
-  <si>
-    <t>46.7%</t>
-  </si>
-  <si>
-    <t>45.5%</t>
-  </si>
-  <si>
-    <t>50.5%</t>
-  </si>
-  <si>
-    <t>29.3%</t>
-  </si>
-  <si>
-    <t>36.9%</t>
-  </si>
-  <si>
-    <t>45.4%</t>
-  </si>
-  <si>
-    <t>40.2%</t>
-  </si>
-  <si>
-    <t>55.7%</t>
-  </si>
-  <si>
-    <t>58.5%</t>
-  </si>
-  <si>
-    <t>46.1%</t>
-  </si>
-  <si>
-    <t>51.2%</t>
-  </si>
-  <si>
-    <t>46.5%</t>
-  </si>
-  <si>
-    <t>44.2%</t>
-  </si>
-  <si>
-    <t>40.3%</t>
-  </si>
-  <si>
-    <t>57.3%</t>
-  </si>
-  <si>
-    <t>52.8%</t>
-  </si>
-  <si>
-    <t>59.8%</t>
-  </si>
-  <si>
-    <t>51.1%</t>
-  </si>
-  <si>
-    <t>48.0%</t>
-  </si>
-  <si>
-    <t>57.7%</t>
-  </si>
-  <si>
-    <t>41.5%</t>
-  </si>
-  <si>
-    <t>48.8%</t>
-  </si>
-  <si>
-    <t>36.6%</t>
-  </si>
-  <si>
-    <t>54.0%</t>
-  </si>
-  <si>
-    <t>44.3%</t>
-  </si>
-  <si>
-    <t>50.4%</t>
-  </si>
-  <si>
-    <t>74.5%</t>
-  </si>
-  <si>
-    <t>75.0%</t>
-  </si>
-  <si>
-    <t>71.3%</t>
-  </si>
-  <si>
-    <t>71.2%</t>
-  </si>
-  <si>
-    <t>72.5%</t>
-  </si>
-  <si>
-    <t>70.9%</t>
-  </si>
-  <si>
-    <t>71.8%</t>
-  </si>
-  <si>
-    <t>73.4%</t>
-  </si>
-  <si>
-    <t>73.1%</t>
-  </si>
-  <si>
-    <t>70.7%</t>
-  </si>
-  <si>
-    <t>72.2%</t>
-  </si>
-  <si>
-    <t>72.9%</t>
-  </si>
-  <si>
-    <t>70.6%</t>
-  </si>
-  <si>
-    <t>72.6%</t>
-  </si>
-  <si>
-    <t>72.4%</t>
-  </si>
-  <si>
-    <t>71.7%</t>
-  </si>
-  <si>
-    <t>69.1%</t>
-  </si>
-  <si>
-    <t>70.5%</t>
-  </si>
-  <si>
-    <t>68.8%</t>
-  </si>
-  <si>
-    <t>69.4%</t>
-  </si>
-  <si>
-    <t>71.0%</t>
-  </si>
-  <si>
-    <t>70.1%</t>
-  </si>
-  <si>
-    <t>72.3%</t>
-  </si>
-  <si>
-    <t>70.4%</t>
-  </si>
-  <si>
-    <t>71.5%</t>
-  </si>
-  <si>
-    <t>72.1%</t>
-  </si>
-  <si>
-    <t>69.6%</t>
-  </si>
-  <si>
-    <t>69.7%</t>
-  </si>
-  <si>
-    <t>69.5%</t>
-  </si>
-  <si>
-    <t>69.0%</t>
-  </si>
-  <si>
-    <t>70.8%</t>
-  </si>
-  <si>
-    <t>70.0%</t>
-  </si>
-  <si>
-    <t>69.9%</t>
-  </si>
-  <si>
-    <t>70.2%</t>
-  </si>
-  <si>
-    <t>69.3%</t>
-  </si>
-  <si>
-    <t>71.9%</t>
-  </si>
-  <si>
-    <t>69.2%</t>
-  </si>
-  <si>
-    <t>68.9%</t>
-  </si>
-  <si>
-    <t>69.8%</t>
-  </si>
-  <si>
-    <t>68.5%</t>
-  </si>
-  <si>
-    <t>66.5%</t>
-  </si>
-  <si>
-    <t>66.6%</t>
-  </si>
-  <si>
-    <t>73.5%</t>
-  </si>
-  <si>
-    <t>67.7%</t>
-  </si>
-  <si>
-    <t>66.1%</t>
-  </si>
-  <si>
-    <t>70.3%</t>
-  </si>
-  <si>
-    <t>68.3%</t>
-  </si>
-  <si>
-    <t>68.6%</t>
-  </si>
-  <si>
-    <t>66.9%</t>
-  </si>
-  <si>
-    <t>68.7%</t>
-  </si>
-  <si>
-    <t>67.8%</t>
-  </si>
-  <si>
-    <t>68.0%</t>
-  </si>
-  <si>
-    <t>67.0%</t>
-  </si>
-  <si>
-    <t>66.7%</t>
-  </si>
-  <si>
-    <t>65.6%</t>
-  </si>
-  <si>
-    <t>67.3%</t>
-  </si>
-  <si>
-    <t>66.4%</t>
-  </si>
-  <si>
-    <t>1.30</t>
-  </si>
-  <si>
-    <t>1.29</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.19</t>
-  </si>
-  <si>
-    <t>1.18</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>1.14</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.09</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>1.05</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>0.91</t>
+    <t>40.6</t>
+  </si>
+  <si>
+    <t>39.2</t>
+  </si>
+  <si>
+    <t>50.2</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>53.3</t>
+  </si>
+  <si>
+    <t>49.5</t>
+  </si>
+  <si>
+    <t>47.6</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>48.6</t>
+  </si>
+  <si>
+    <t>51.5</t>
+  </si>
+  <si>
+    <t>41.9</t>
+  </si>
+  <si>
+    <t>50.8</t>
+  </si>
+  <si>
+    <t>53.7</t>
+  </si>
+  <si>
+    <t>32.6</t>
+  </si>
+  <si>
+    <t>48.9</t>
+  </si>
+  <si>
+    <t>62.8</t>
+  </si>
+  <si>
+    <t>29.9</t>
+  </si>
+  <si>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>51.8</t>
+  </si>
+  <si>
+    <t>48.7</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>52.2</t>
+  </si>
+  <si>
+    <t>45.8</t>
+  </si>
+  <si>
+    <t>47.4</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>49.6</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>46.3</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>55.8</t>
+  </si>
+  <si>
+    <t>35.2</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
+    <t>44.1</t>
+  </si>
+  <si>
+    <t>52.7</t>
+  </si>
+  <si>
+    <t>56.8</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t>49.2</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>53.6</t>
+  </si>
+  <si>
+    <t>41.8</t>
+  </si>
+  <si>
+    <t>31.4</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>53.2</t>
+  </si>
+  <si>
+    <t>54.5</t>
+  </si>
+  <si>
+    <t>54.2</t>
+  </si>
+  <si>
+    <t>41.3</t>
+  </si>
+  <si>
+    <t>55.4</t>
+  </si>
+  <si>
+    <t>49.1</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>48.3</t>
+  </si>
+  <si>
+    <t>47.8</t>
+  </si>
+  <si>
+    <t>54.3</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>49.3</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>37.9</t>
+  </si>
+  <si>
+    <t>46.7</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>50.5</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>45.4</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>55.7</t>
+  </si>
+  <si>
+    <t>58.5</t>
+  </si>
+  <si>
+    <t>46.1</t>
+  </si>
+  <si>
+    <t>51.2</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>44.2</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>52.8</t>
+  </si>
+  <si>
+    <t>59.8</t>
+  </si>
+  <si>
+    <t>51.1</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>57.7</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>48.8</t>
+  </si>
+  <si>
+    <t>36.6</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>44.3</t>
+  </si>
+  <si>
+    <t>50.4</t>
+  </si>
+  <si>
+    <t>74.5</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>71.3</t>
+  </si>
+  <si>
+    <t>71.2</t>
+  </si>
+  <si>
+    <t>72.5</t>
+  </si>
+  <si>
+    <t>70.9</t>
+  </si>
+  <si>
+    <t>71.8</t>
+  </si>
+  <si>
+    <t>73.4</t>
+  </si>
+  <si>
+    <t>73.1</t>
+  </si>
+  <si>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>72.2</t>
+  </si>
+  <si>
+    <t>72.9</t>
+  </si>
+  <si>
+    <t>70.6</t>
+  </si>
+  <si>
+    <t>72.6</t>
+  </si>
+  <si>
+    <t>72.4</t>
+  </si>
+  <si>
+    <t>71.7</t>
+  </si>
+  <si>
+    <t>69.1</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>68.8</t>
+  </si>
+  <si>
+    <t>69.4</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>70.1</t>
+  </si>
+  <si>
+    <t>72.3</t>
+  </si>
+  <si>
+    <t>70.4</t>
+  </si>
+  <si>
+    <t>71.5</t>
+  </si>
+  <si>
+    <t>72.1</t>
+  </si>
+  <si>
+    <t>69.6</t>
+  </si>
+  <si>
+    <t>69.7</t>
+  </si>
+  <si>
+    <t>69.5</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>70.8</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>69.9</t>
+  </si>
+  <si>
+    <t>70.2</t>
+  </si>
+  <si>
+    <t>69.3</t>
+  </si>
+  <si>
+    <t>71.9</t>
+  </si>
+  <si>
+    <t>69.2</t>
+  </si>
+  <si>
+    <t>68.9</t>
+  </si>
+  <si>
+    <t>69.8</t>
+  </si>
+  <si>
+    <t>68.5</t>
+  </si>
+  <si>
+    <t>66.5</t>
+  </si>
+  <si>
+    <t>66.6</t>
+  </si>
+  <si>
+    <t>73.5</t>
+  </si>
+  <si>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>66.1</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>68.6</t>
+  </si>
+  <si>
+    <t>66.9</t>
+  </si>
+  <si>
+    <t>68.7</t>
+  </si>
+  <si>
+    <t>67.8</t>
+  </si>
+  <si>
+    <t>68.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>66.7</t>
+  </si>
+  <si>
+    <t>65.6</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>66.4</t>
   </si>
 </sst>
 </file>
@@ -1394,8 +1310,8 @@
       <c r="J2" t="s">
         <v>232</v>
       </c>
-      <c r="K2" t="s">
-        <v>289</v>
+      <c r="K2">
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1429,8 +1345,8 @@
       <c r="J3" t="s">
         <v>233</v>
       </c>
-      <c r="K3" t="s">
-        <v>290</v>
+      <c r="K3">
+        <v>1.29</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1464,8 +1380,8 @@
       <c r="J4" t="s">
         <v>234</v>
       </c>
-      <c r="K4" t="s">
-        <v>291</v>
+      <c r="K4">
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1499,8 +1415,8 @@
       <c r="J5" t="s">
         <v>235</v>
       </c>
-      <c r="K5" t="s">
-        <v>292</v>
+      <c r="K5">
+        <v>1.19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1534,8 +1450,8 @@
       <c r="J6" t="s">
         <v>236</v>
       </c>
-      <c r="K6" t="s">
-        <v>293</v>
+      <c r="K6">
+        <v>1.18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1569,8 +1485,8 @@
       <c r="J7" t="s">
         <v>237</v>
       </c>
-      <c r="K7" t="s">
-        <v>294</v>
+      <c r="K7">
+        <v>1.17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1604,8 +1520,8 @@
       <c r="J8" t="s">
         <v>238</v>
       </c>
-      <c r="K8" t="s">
-        <v>295</v>
+      <c r="K8">
+        <v>1.15</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1639,8 +1555,8 @@
       <c r="J9" t="s">
         <v>239</v>
       </c>
-      <c r="K9" t="s">
-        <v>295</v>
+      <c r="K9">
+        <v>1.15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1674,8 +1590,8 @@
       <c r="J10" t="s">
         <v>240</v>
       </c>
-      <c r="K10" t="s">
-        <v>296</v>
+      <c r="K10">
+        <v>1.14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1709,8 +1625,8 @@
       <c r="J11" t="s">
         <v>241</v>
       </c>
-      <c r="K11" t="s">
-        <v>296</v>
+      <c r="K11">
+        <v>1.14</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1744,8 +1660,8 @@
       <c r="J12" t="s">
         <v>242</v>
       </c>
-      <c r="K12" t="s">
-        <v>296</v>
+      <c r="K12">
+        <v>1.14</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1779,8 +1695,8 @@
       <c r="J13" t="s">
         <v>243</v>
       </c>
-      <c r="K13" t="s">
-        <v>296</v>
+      <c r="K13">
+        <v>1.14</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1814,8 +1730,8 @@
       <c r="J14" t="s">
         <v>244</v>
       </c>
-      <c r="K14" t="s">
-        <v>297</v>
+      <c r="K14">
+        <v>1.13</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1849,8 +1765,8 @@
       <c r="J15" t="s">
         <v>245</v>
       </c>
-      <c r="K15" t="s">
-        <v>297</v>
+      <c r="K15">
+        <v>1.13</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1884,8 +1800,8 @@
       <c r="J16" t="s">
         <v>246</v>
       </c>
-      <c r="K16" t="s">
-        <v>297</v>
+      <c r="K16">
+        <v>1.13</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1919,8 +1835,8 @@
       <c r="J17" t="s">
         <v>241</v>
       </c>
-      <c r="K17" t="s">
-        <v>297</v>
+      <c r="K17">
+        <v>1.13</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1954,8 +1870,8 @@
       <c r="J18" t="s">
         <v>247</v>
       </c>
-      <c r="K18" t="s">
-        <v>298</v>
+      <c r="K18">
+        <v>1.12</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1989,8 +1905,8 @@
       <c r="J19" t="s">
         <v>239</v>
       </c>
-      <c r="K19" t="s">
-        <v>298</v>
+      <c r="K19">
+        <v>1.12</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2024,8 +1940,8 @@
       <c r="J20" t="s">
         <v>248</v>
       </c>
-      <c r="K20" t="s">
-        <v>298</v>
+      <c r="K20">
+        <v>1.12</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2059,8 +1975,8 @@
       <c r="J21" t="s">
         <v>238</v>
       </c>
-      <c r="K21" t="s">
-        <v>298</v>
+      <c r="K21">
+        <v>1.12</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2094,8 +2010,8 @@
       <c r="J22" t="s">
         <v>249</v>
       </c>
-      <c r="K22" t="s">
-        <v>299</v>
+      <c r="K22">
+        <v>1.11</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2129,8 +2045,8 @@
       <c r="J23" t="s">
         <v>250</v>
       </c>
-      <c r="K23" t="s">
-        <v>299</v>
+      <c r="K23">
+        <v>1.11</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2164,8 +2080,8 @@
       <c r="J24" t="s">
         <v>251</v>
       </c>
-      <c r="K24" t="s">
-        <v>299</v>
+      <c r="K24">
+        <v>1.11</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2199,8 +2115,8 @@
       <c r="J25" t="s">
         <v>252</v>
       </c>
-      <c r="K25" t="s">
-        <v>299</v>
+      <c r="K25">
+        <v>1.11</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2234,8 +2150,8 @@
       <c r="J26" t="s">
         <v>253</v>
       </c>
-      <c r="K26" t="s">
-        <v>299</v>
+      <c r="K26">
+        <v>1.11</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2269,8 +2185,8 @@
       <c r="J27" t="s">
         <v>254</v>
       </c>
-      <c r="K27" t="s">
-        <v>299</v>
+      <c r="K27">
+        <v>1.11</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2304,8 +2220,8 @@
       <c r="J28" t="s">
         <v>255</v>
       </c>
-      <c r="K28" t="s">
-        <v>300</v>
+      <c r="K28">
+        <v>1.1</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2339,8 +2255,8 @@
       <c r="J29" t="s">
         <v>256</v>
       </c>
-      <c r="K29" t="s">
-        <v>300</v>
+      <c r="K29">
+        <v>1.1</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2374,8 +2290,8 @@
       <c r="J30" t="s">
         <v>238</v>
       </c>
-      <c r="K30" t="s">
-        <v>300</v>
+      <c r="K30">
+        <v>1.1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2409,8 +2325,8 @@
       <c r="J31" t="s">
         <v>252</v>
       </c>
-      <c r="K31" t="s">
-        <v>300</v>
+      <c r="K31">
+        <v>1.1</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2444,8 +2360,8 @@
       <c r="J32" t="s">
         <v>249</v>
       </c>
-      <c r="K32" t="s">
-        <v>300</v>
+      <c r="K32">
+        <v>1.1</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2479,8 +2395,8 @@
       <c r="J33" t="s">
         <v>234</v>
       </c>
-      <c r="K33" t="s">
-        <v>301</v>
+      <c r="K33">
+        <v>1.09</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2514,8 +2430,8 @@
       <c r="J34" t="s">
         <v>250</v>
       </c>
-      <c r="K34" t="s">
-        <v>301</v>
+      <c r="K34">
+        <v>1.09</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2549,8 +2465,8 @@
       <c r="J35" t="s">
         <v>257</v>
       </c>
-      <c r="K35" t="s">
-        <v>301</v>
+      <c r="K35">
+        <v>1.09</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2584,8 +2500,8 @@
       <c r="J36" t="s">
         <v>237</v>
       </c>
-      <c r="K36" t="s">
-        <v>301</v>
+      <c r="K36">
+        <v>1.09</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2619,8 +2535,8 @@
       <c r="J37" t="s">
         <v>253</v>
       </c>
-      <c r="K37" t="s">
-        <v>301</v>
+      <c r="K37">
+        <v>1.09</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2654,8 +2570,8 @@
       <c r="J38" t="s">
         <v>258</v>
       </c>
-      <c r="K38" t="s">
-        <v>301</v>
+      <c r="K38">
+        <v>1.09</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2689,8 +2605,8 @@
       <c r="J39" t="s">
         <v>259</v>
       </c>
-      <c r="K39" t="s">
-        <v>302</v>
+      <c r="K39">
+        <v>1.08</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2724,8 +2640,8 @@
       <c r="J40" t="s">
         <v>259</v>
       </c>
-      <c r="K40" t="s">
-        <v>302</v>
+      <c r="K40">
+        <v>1.08</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2759,8 +2675,8 @@
       <c r="J41" t="s">
         <v>253</v>
       </c>
-      <c r="K41" t="s">
-        <v>302</v>
+      <c r="K41">
+        <v>1.08</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2794,8 +2710,8 @@
       <c r="J42" t="s">
         <v>260</v>
       </c>
-      <c r="K42" t="s">
-        <v>303</v>
+      <c r="K42">
+        <v>1.07</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2829,8 +2745,8 @@
       <c r="J43" t="s">
         <v>248</v>
       </c>
-      <c r="K43" t="s">
-        <v>303</v>
+      <c r="K43">
+        <v>1.07</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2864,8 +2780,8 @@
       <c r="J44" t="s">
         <v>261</v>
       </c>
-      <c r="K44" t="s">
-        <v>303</v>
+      <c r="K44">
+        <v>1.07</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2899,8 +2815,8 @@
       <c r="J45" t="s">
         <v>262</v>
       </c>
-      <c r="K45" t="s">
-        <v>303</v>
+      <c r="K45">
+        <v>1.07</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2934,8 +2850,8 @@
       <c r="J46" t="s">
         <v>263</v>
       </c>
-      <c r="K46" t="s">
-        <v>303</v>
+      <c r="K46">
+        <v>1.07</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2969,8 +2885,8 @@
       <c r="J47" t="s">
         <v>264</v>
       </c>
-      <c r="K47" t="s">
-        <v>303</v>
+      <c r="K47">
+        <v>1.07</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3004,8 +2920,8 @@
       <c r="J48" t="s">
         <v>262</v>
       </c>
-      <c r="K48" t="s">
-        <v>303</v>
+      <c r="K48">
+        <v>1.07</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3039,8 +2955,8 @@
       <c r="J49" t="s">
         <v>244</v>
       </c>
-      <c r="K49" t="s">
-        <v>304</v>
+      <c r="K49">
+        <v>1.06</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3074,8 +2990,8 @@
       <c r="J50" t="s">
         <v>265</v>
       </c>
-      <c r="K50" t="s">
-        <v>304</v>
+      <c r="K50">
+        <v>1.06</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3109,8 +3025,8 @@
       <c r="J51" t="s">
         <v>251</v>
       </c>
-      <c r="K51" t="s">
-        <v>304</v>
+      <c r="K51">
+        <v>1.06</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3144,8 +3060,8 @@
       <c r="J52" t="s">
         <v>237</v>
       </c>
-      <c r="K52" t="s">
-        <v>304</v>
+      <c r="K52">
+        <v>1.06</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3179,8 +3095,8 @@
       <c r="J53" t="s">
         <v>244</v>
       </c>
-      <c r="K53" t="s">
-        <v>304</v>
+      <c r="K53">
+        <v>1.06</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3214,8 +3130,8 @@
       <c r="J54" t="s">
         <v>242</v>
       </c>
-      <c r="K54" t="s">
-        <v>304</v>
+      <c r="K54">
+        <v>1.06</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3249,8 +3165,8 @@
       <c r="J55" t="s">
         <v>237</v>
       </c>
-      <c r="K55" t="s">
-        <v>304</v>
+      <c r="K55">
+        <v>1.06</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3284,8 +3200,8 @@
       <c r="J56" t="s">
         <v>234</v>
       </c>
-      <c r="K56" t="s">
-        <v>305</v>
+      <c r="K56">
+        <v>1.05</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -3319,8 +3235,8 @@
       <c r="J57" t="s">
         <v>266</v>
       </c>
-      <c r="K57" t="s">
-        <v>305</v>
+      <c r="K57">
+        <v>1.05</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -3354,8 +3270,8 @@
       <c r="J58" t="s">
         <v>267</v>
       </c>
-      <c r="K58" t="s">
-        <v>305</v>
+      <c r="K58">
+        <v>1.05</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -3389,8 +3305,8 @@
       <c r="J59" t="s">
         <v>249</v>
       </c>
-      <c r="K59" t="s">
-        <v>305</v>
+      <c r="K59">
+        <v>1.05</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3424,8 +3340,8 @@
       <c r="J60" t="s">
         <v>260</v>
       </c>
-      <c r="K60" t="s">
-        <v>305</v>
+      <c r="K60">
+        <v>1.05</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3459,8 +3375,8 @@
       <c r="J61" t="s">
         <v>268</v>
       </c>
-      <c r="K61" t="s">
-        <v>305</v>
+      <c r="K61">
+        <v>1.05</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3494,8 +3410,8 @@
       <c r="J62" t="s">
         <v>269</v>
       </c>
-      <c r="K62" t="s">
-        <v>306</v>
+      <c r="K62">
+        <v>1.04</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3529,8 +3445,8 @@
       <c r="J63" t="s">
         <v>270</v>
       </c>
-      <c r="K63" t="s">
-        <v>306</v>
+      <c r="K63">
+        <v>1.04</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3564,8 +3480,8 @@
       <c r="J64" t="s">
         <v>255</v>
       </c>
-      <c r="K64" t="s">
-        <v>306</v>
+      <c r="K64">
+        <v>1.04</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3599,8 +3515,8 @@
       <c r="J65" t="s">
         <v>241</v>
       </c>
-      <c r="K65" t="s">
-        <v>306</v>
+      <c r="K65">
+        <v>1.04</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3634,8 +3550,8 @@
       <c r="J66" t="s">
         <v>259</v>
       </c>
-      <c r="K66" t="s">
-        <v>306</v>
+      <c r="K66">
+        <v>1.04</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3669,8 +3585,8 @@
       <c r="J67" t="s">
         <v>249</v>
       </c>
-      <c r="K67" t="s">
-        <v>307</v>
+      <c r="K67">
+        <v>1.03</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3704,8 +3620,8 @@
       <c r="J68" t="s">
         <v>271</v>
       </c>
-      <c r="K68" t="s">
-        <v>307</v>
+      <c r="K68">
+        <v>1.03</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3739,8 +3655,8 @@
       <c r="J69" t="s">
         <v>265</v>
       </c>
-      <c r="K69" t="s">
-        <v>307</v>
+      <c r="K69">
+        <v>1.03</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3774,8 +3690,8 @@
       <c r="J70" t="s">
         <v>250</v>
       </c>
-      <c r="K70" t="s">
-        <v>307</v>
+      <c r="K70">
+        <v>1.03</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3809,8 +3725,8 @@
       <c r="J71" t="s">
         <v>272</v>
       </c>
-      <c r="K71" t="s">
-        <v>307</v>
+      <c r="K71">
+        <v>1.03</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3844,8 +3760,8 @@
       <c r="J72" t="s">
         <v>249</v>
       </c>
-      <c r="K72" t="s">
-        <v>307</v>
+      <c r="K72">
+        <v>1.03</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3879,8 +3795,8 @@
       <c r="J73" t="s">
         <v>250</v>
       </c>
-      <c r="K73" t="s">
-        <v>307</v>
+      <c r="K73">
+        <v>1.03</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3914,8 +3830,8 @@
       <c r="J74" t="s">
         <v>262</v>
       </c>
-      <c r="K74" t="s">
-        <v>307</v>
+      <c r="K74">
+        <v>1.03</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3949,8 +3865,8 @@
       <c r="J75" t="s">
         <v>259</v>
       </c>
-      <c r="K75" t="s">
-        <v>308</v>
+      <c r="K75">
+        <v>1.02</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3984,8 +3900,8 @@
       <c r="J76" t="s">
         <v>268</v>
       </c>
-      <c r="K76" t="s">
-        <v>308</v>
+      <c r="K76">
+        <v>1.02</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4019,8 +3935,8 @@
       <c r="J77" t="s">
         <v>273</v>
       </c>
-      <c r="K77" t="s">
-        <v>308</v>
+      <c r="K77">
+        <v>1.02</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4054,8 +3970,8 @@
       <c r="J78" t="s">
         <v>272</v>
       </c>
-      <c r="K78" t="s">
-        <v>308</v>
+      <c r="K78">
+        <v>1.02</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4089,8 +4005,8 @@
       <c r="J79" t="s">
         <v>274</v>
       </c>
-      <c r="K79" t="s">
-        <v>308</v>
+      <c r="K79">
+        <v>1.02</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4124,8 +4040,8 @@
       <c r="J80" t="s">
         <v>275</v>
       </c>
-      <c r="K80" t="s">
-        <v>308</v>
+      <c r="K80">
+        <v>1.02</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -4159,8 +4075,8 @@
       <c r="J81" t="s">
         <v>276</v>
       </c>
-      <c r="K81" t="s">
-        <v>309</v>
+      <c r="K81">
+        <v>1.01</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -4194,8 +4110,8 @@
       <c r="J82" t="s">
         <v>268</v>
       </c>
-      <c r="K82" t="s">
-        <v>309</v>
+      <c r="K82">
+        <v>1.01</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -4229,8 +4145,8 @@
       <c r="J83" t="s">
         <v>260</v>
       </c>
-      <c r="K83" t="s">
-        <v>309</v>
+      <c r="K83">
+        <v>1.01</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -4264,8 +4180,8 @@
       <c r="J84" t="s">
         <v>261</v>
       </c>
-      <c r="K84" t="s">
-        <v>310</v>
+      <c r="K84">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -4299,8 +4215,8 @@
       <c r="J85" t="s">
         <v>264</v>
       </c>
-      <c r="K85" t="s">
-        <v>310</v>
+      <c r="K85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -4334,8 +4250,8 @@
       <c r="J86" t="s">
         <v>272</v>
       </c>
-      <c r="K86" t="s">
-        <v>310</v>
+      <c r="K86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -4369,8 +4285,8 @@
       <c r="J87" t="s">
         <v>277</v>
       </c>
-      <c r="K87" t="s">
-        <v>310</v>
+      <c r="K87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -4404,8 +4320,8 @@
       <c r="J88" t="s">
         <v>278</v>
       </c>
-      <c r="K88" t="s">
-        <v>311</v>
+      <c r="K88">
+        <v>0.99</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -4439,8 +4355,8 @@
       <c r="J89" t="s">
         <v>263</v>
       </c>
-      <c r="K89" t="s">
-        <v>311</v>
+      <c r="K89">
+        <v>0.99</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -4474,8 +4390,8 @@
       <c r="J90" t="s">
         <v>279</v>
       </c>
-      <c r="K90" t="s">
-        <v>311</v>
+      <c r="K90">
+        <v>0.99</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -4509,8 +4425,8 @@
       <c r="J91" t="s">
         <v>279</v>
       </c>
-      <c r="K91" t="s">
-        <v>312</v>
+      <c r="K91">
+        <v>0.98</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -4544,8 +4460,8 @@
       <c r="J92" t="s">
         <v>280</v>
       </c>
-      <c r="K92" t="s">
-        <v>312</v>
+      <c r="K92">
+        <v>0.98</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -4579,8 +4495,8 @@
       <c r="J93" t="s">
         <v>266</v>
       </c>
-      <c r="K93" t="s">
-        <v>312</v>
+      <c r="K93">
+        <v>0.98</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -4614,8 +4530,8 @@
       <c r="J94" t="s">
         <v>281</v>
       </c>
-      <c r="K94" t="s">
-        <v>312</v>
+      <c r="K94">
+        <v>0.98</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -4649,8 +4565,8 @@
       <c r="J95" t="s">
         <v>279</v>
       </c>
-      <c r="K95" t="s">
-        <v>312</v>
+      <c r="K95">
+        <v>0.98</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -4684,8 +4600,8 @@
       <c r="J96" t="s">
         <v>282</v>
       </c>
-      <c r="K96" t="s">
-        <v>312</v>
+      <c r="K96">
+        <v>0.98</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -4719,8 +4635,8 @@
       <c r="J97" t="s">
         <v>265</v>
       </c>
-      <c r="K97" t="s">
-        <v>312</v>
+      <c r="K97">
+        <v>0.98</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -4754,8 +4670,8 @@
       <c r="J98" t="s">
         <v>271</v>
       </c>
-      <c r="K98" t="s">
-        <v>312</v>
+      <c r="K98">
+        <v>0.98</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -4789,8 +4705,8 @@
       <c r="J99" t="s">
         <v>283</v>
       </c>
-      <c r="K99" t="s">
-        <v>313</v>
+      <c r="K99">
+        <v>0.97</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -4824,8 +4740,8 @@
       <c r="J100" t="s">
         <v>271</v>
       </c>
-      <c r="K100" t="s">
-        <v>313</v>
+      <c r="K100">
+        <v>0.97</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -4859,8 +4775,8 @@
       <c r="J101" t="s">
         <v>284</v>
       </c>
-      <c r="K101" t="s">
-        <v>313</v>
+      <c r="K101">
+        <v>0.97</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -4894,8 +4810,8 @@
       <c r="J102" t="s">
         <v>285</v>
       </c>
-      <c r="K102" t="s">
-        <v>313</v>
+      <c r="K102">
+        <v>0.97</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4929,8 +4845,8 @@
       <c r="J103" t="s">
         <v>279</v>
       </c>
-      <c r="K103" t="s">
-        <v>314</v>
+      <c r="K103">
+        <v>0.95</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4964,8 +4880,8 @@
       <c r="J104" t="s">
         <v>286</v>
       </c>
-      <c r="K104" t="s">
-        <v>314</v>
+      <c r="K104">
+        <v>0.95</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4999,8 +4915,8 @@
       <c r="J105" t="s">
         <v>283</v>
       </c>
-      <c r="K105" t="s">
-        <v>315</v>
+      <c r="K105">
+        <v>0.93</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -5034,8 +4950,8 @@
       <c r="J106" t="s">
         <v>287</v>
       </c>
-      <c r="K106" t="s">
-        <v>315</v>
+      <c r="K106">
+        <v>0.93</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -5069,8 +4985,8 @@
       <c r="J107" t="s">
         <v>288</v>
       </c>
-      <c r="K107" t="s">
-        <v>315</v>
+      <c r="K107">
+        <v>0.93</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -5104,8 +5020,8 @@
       <c r="J108" t="s">
         <v>288</v>
       </c>
-      <c r="K108" t="s">
-        <v>316</v>
+      <c r="K108">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
